--- a/ApocalypseFood/data/ApocalypseFood.xlsx
+++ b/ApocalypseFood/data/ApocalypseFood.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Power BI Tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4C9D61-390D-4023-BEE6-CEA9014A7CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6354721A-B600-443F-889D-4DD0B0B0D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Purchase Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot Table" sheetId="3" r:id="rId2"/>
+    <sheet name="Puchase Overview" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="32">
   <si>
     <t>Store</t>
   </si>
@@ -72,15 +77,76 @@
   <si>
     <t>Canned Vegetables</t>
   </si>
+  <si>
+    <t>Rope</t>
+  </si>
+  <si>
+    <t>Flashlight</t>
+  </si>
+  <si>
+    <t>Duct Tape</t>
+  </si>
+  <si>
+    <t>Water Filter</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>&lt;1/1/2022</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Costco Total</t>
+  </si>
+  <si>
+    <t>Target Total</t>
+  </si>
+  <si>
+    <t>Walmart Total</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Apocolypse Food Prep Overview</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +162,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,12 +221,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +262,1526 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alex Freberg" refreshedDate="44711.527471875001" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="85" xr:uid="{28E2CE8A-3FC7-4A8A-9527-6B101DCBD475}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C1048576" sheet="Puchase Overview"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Store" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Walmart"/>
+        <s v="Costco"/>
+        <s v="Target"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <s v="Rice"/>
+        <s v="Dried Beans"/>
+        <s v="Bottled Water "/>
+        <s v="Canned Vegetables"/>
+        <s v="Milk"/>
+        <s v="Rope"/>
+        <s v="Flashlight"/>
+        <s v="Duct Tape"/>
+        <s v="Water Filter"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.65" maxValue="39"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-01-01T00:00:00" maxDate="2022-04-02T00:00:00" count="5">
+        <d v="2022-01-01T00:00:00"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-03-01T00:00:00"/>
+        <d v="2022-04-01T00:00:00"/>
+        <m/>
+      </sharedItems>
+      <fieldGroup par="4" base="3">
+        <rangePr groupBy="days" startDate="2022-01-01T00:00:00" endDate="2022-04-02T00:00:00"/>
+        <groupItems count="368">
+          <s v="(blank)"/>
+          <s v="1-Jan"/>
+          <s v="2-Jan"/>
+          <s v="3-Jan"/>
+          <s v="4-Jan"/>
+          <s v="5-Jan"/>
+          <s v="6-Jan"/>
+          <s v="7-Jan"/>
+          <s v="8-Jan"/>
+          <s v="9-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="1-Feb"/>
+          <s v="2-Feb"/>
+          <s v="3-Feb"/>
+          <s v="4-Feb"/>
+          <s v="5-Feb"/>
+          <s v="6-Feb"/>
+          <s v="7-Feb"/>
+          <s v="8-Feb"/>
+          <s v="9-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="1-Mar"/>
+          <s v="2-Mar"/>
+          <s v="3-Mar"/>
+          <s v="4-Mar"/>
+          <s v="5-Mar"/>
+          <s v="6-Mar"/>
+          <s v="7-Mar"/>
+          <s v="8-Mar"/>
+          <s v="9-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="1-Apr"/>
+          <s v="2-Apr"/>
+          <s v="3-Apr"/>
+          <s v="4-Apr"/>
+          <s v="5-Apr"/>
+          <s v="6-Apr"/>
+          <s v="7-Apr"/>
+          <s v="8-Apr"/>
+          <s v="9-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="1-May"/>
+          <s v="2-May"/>
+          <s v="3-May"/>
+          <s v="4-May"/>
+          <s v="5-May"/>
+          <s v="6-May"/>
+          <s v="7-May"/>
+          <s v="8-May"/>
+          <s v="9-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="1-Jun"/>
+          <s v="2-Jun"/>
+          <s v="3-Jun"/>
+          <s v="4-Jun"/>
+          <s v="5-Jun"/>
+          <s v="6-Jun"/>
+          <s v="7-Jun"/>
+          <s v="8-Jun"/>
+          <s v="9-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="1-Jul"/>
+          <s v="2-Jul"/>
+          <s v="3-Jul"/>
+          <s v="4-Jul"/>
+          <s v="5-Jul"/>
+          <s v="6-Jul"/>
+          <s v="7-Jul"/>
+          <s v="8-Jul"/>
+          <s v="9-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="1-Aug"/>
+          <s v="2-Aug"/>
+          <s v="3-Aug"/>
+          <s v="4-Aug"/>
+          <s v="5-Aug"/>
+          <s v="6-Aug"/>
+          <s v="7-Aug"/>
+          <s v="8-Aug"/>
+          <s v="9-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="1-Sep"/>
+          <s v="2-Sep"/>
+          <s v="3-Sep"/>
+          <s v="4-Sep"/>
+          <s v="5-Sep"/>
+          <s v="6-Sep"/>
+          <s v="7-Sep"/>
+          <s v="8-Sep"/>
+          <s v="9-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="1-Oct"/>
+          <s v="2-Oct"/>
+          <s v="3-Oct"/>
+          <s v="4-Oct"/>
+          <s v="5-Oct"/>
+          <s v="6-Oct"/>
+          <s v="7-Oct"/>
+          <s v="8-Oct"/>
+          <s v="9-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="1-Nov"/>
+          <s v="2-Nov"/>
+          <s v="3-Nov"/>
+          <s v="4-Nov"/>
+          <s v="5-Nov"/>
+          <s v="6-Nov"/>
+          <s v="7-Nov"/>
+          <s v="8-Nov"/>
+          <s v="9-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="1-Dec"/>
+          <s v="2-Dec"/>
+          <s v="3-Dec"/>
+          <s v="4-Dec"/>
+          <s v="5-Dec"/>
+          <s v="6-Dec"/>
+          <s v="7-Dec"/>
+          <s v="8-Dec"/>
+          <s v="9-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;4/2/2022"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Months" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="months" startDate="2022-01-01T00:00:00" endDate="2022-04-02T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;1/1/2022"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;4/2/2022"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="85">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="22.99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="23.99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="23.25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26.99"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="24.99"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26.99"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="25.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24.75"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="22.99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="20.99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="23.99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="23.99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="22.99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="24.99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="24.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="22.99"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="25.45"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="24.49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="23.99"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="25.79"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4.25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4.99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5.25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4.49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5.15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5.45"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5.75"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4.8899999999999997"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5.35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.65"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.85"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.65"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.69"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.85"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.85"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.85"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.79"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2.2999999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2.2000000000000002"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2.4500000000000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2.9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2.7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="13.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="14.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="15.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="12.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="13"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="12.75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="5.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="5.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="6.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="38"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="39"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="31"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="39"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <m/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40B2B0F0-9A31-4AE7-A5EC-7612DB6EB1A9}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="32">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Price" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C502D15-4E0D-42D8-A877-22E48FDC669F}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,8 +2946,1742 @@
         <v>44652</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>15.25</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2">
+        <v>39</v>
+      </c>
+      <c r="D80" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="2">
+        <v>29</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="2">
+        <v>38</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="2">
+        <v>39</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2">
+        <v>31</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1EF0DE-A054-4EC0-ACA5-CF6CE4EB9B33}">
+  <dimension ref="A3:G36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>111.88999999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54.72</v>
+      </c>
+      <c r="E5" s="7">
+        <v>119.38</v>
+      </c>
+      <c r="F5" s="7">
+        <v>57.68</v>
+      </c>
+      <c r="G5" s="7">
+        <v>343.66999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>20.99</v>
+      </c>
+      <c r="D8" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="E8" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="F8" s="7">
+        <v>23.99</v>
+      </c>
+      <c r="G8" s="7">
+        <v>90.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23.99</v>
+      </c>
+      <c r="E12" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="F12" s="7">
+        <v>25.25</v>
+      </c>
+      <c r="G12" s="7">
+        <v>97.22999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>126.32</v>
+      </c>
+      <c r="D15" s="7">
+        <v>56.53</v>
+      </c>
+      <c r="E15" s="7">
+        <v>131.63999999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <v>59.68</v>
+      </c>
+      <c r="G15" s="7">
+        <v>374.16999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>4.99</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="G16" s="7">
+        <v>20.740000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>23.99</v>
+      </c>
+      <c r="D18" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="E18" s="7">
+        <v>25.45</v>
+      </c>
+      <c r="F18" s="7">
+        <v>25.79</v>
+      </c>
+      <c r="G18" s="7">
+        <v>100.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>12.75</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>10.350000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="D22" s="7">
+        <v>23.25</v>
+      </c>
+      <c r="E22" s="7">
+        <v>24.25</v>
+      </c>
+      <c r="F22" s="7">
+        <v>24.75</v>
+      </c>
+      <c r="G22" s="7">
+        <v>95.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <v>15.25</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>39</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <v>123.64</v>
+      </c>
+      <c r="D25" s="7">
+        <v>57.839999999999996</v>
+      </c>
+      <c r="E25" s="7">
+        <v>129.94</v>
+      </c>
+      <c r="F25" s="7">
+        <v>61.129999999999995</v>
+      </c>
+      <c r="G25" s="7">
+        <v>372.54999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5.25</v>
+      </c>
+      <c r="E26" s="7">
+        <v>5.45</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="G26" s="7">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="D28" s="7">
+        <v>23.99</v>
+      </c>
+      <c r="E28" s="7">
+        <v>24.25</v>
+      </c>
+      <c r="F28" s="7">
+        <v>24.49</v>
+      </c>
+      <c r="G28" s="7">
+        <v>95.719999999999985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="G31" s="7">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7">
+        <v>25</v>
+      </c>
+      <c r="D32" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="E32" s="7">
+        <v>26.99</v>
+      </c>
+      <c r="F32" s="7">
+        <v>26.99</v>
+      </c>
+      <c r="G32" s="7">
+        <v>104.72999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7">
+        <v>39</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>39</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7">
+        <v>361.84999999999997</v>
+      </c>
+      <c r="D36" s="7">
+        <v>169.09</v>
+      </c>
+      <c r="E36" s="7">
+        <v>380.96</v>
+      </c>
+      <c r="F36" s="7">
+        <v>178.49</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1090.3900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73047B7-2DAC-4C49-91D6-F225A7BE74C9}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17">
+        <v>44562</v>
+      </c>
+      <c r="D4" s="17">
+        <v>44593</v>
+      </c>
+      <c r="E4" s="17">
+        <v>44621</v>
+      </c>
+      <c r="F4" s="17">
+        <v>44652</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G5" s="12">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="E7" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="F7" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="G7" s="12">
+        <v>90.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="12">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G10" s="12">
+        <v>9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="E11" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25.25</v>
+      </c>
+      <c r="G11" s="12">
+        <v>97.22999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="12">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="13">
+        <v>111.88999999999999</v>
+      </c>
+      <c r="D14" s="13">
+        <v>54.72</v>
+      </c>
+      <c r="E14" s="13">
+        <v>119.38</v>
+      </c>
+      <c r="F14" s="13">
+        <v>57.68</v>
+      </c>
+      <c r="G14" s="14">
+        <v>343.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="G15" s="12">
+        <v>20.740000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="D17" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="E17" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25.79</v>
+      </c>
+      <c r="G17" s="12">
+        <v>100.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="12">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="12">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="12">
+        <v>10.350000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="D21" s="2">
+        <v>23.25</v>
+      </c>
+      <c r="E21" s="2">
+        <v>24.25</v>
+      </c>
+      <c r="F21" s="2">
+        <v>24.75</v>
+      </c>
+      <c r="G21" s="12">
+        <v>95.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>15.25</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="12">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="13">
+        <v>126.32</v>
+      </c>
+      <c r="D24" s="13">
+        <v>56.53</v>
+      </c>
+      <c r="E24" s="13">
+        <v>131.63999999999999</v>
+      </c>
+      <c r="F24" s="13">
+        <v>59.68</v>
+      </c>
+      <c r="G24" s="14">
+        <v>374.16999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5.45</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="G25" s="12">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23.99</v>
+      </c>
+      <c r="E27" s="2">
+        <v>24.25</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24.49</v>
+      </c>
+      <c r="G27" s="12">
+        <v>95.719999999999985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="12">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G30" s="12">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25.75</v>
+      </c>
+      <c r="E31" s="2">
+        <v>26.99</v>
+      </c>
+      <c r="F31" s="2">
+        <v>26.99</v>
+      </c>
+      <c r="G31" s="12">
+        <v>104.72999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="12">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="13">
+        <v>123.64</v>
+      </c>
+      <c r="D34" s="13">
+        <v>57.839999999999996</v>
+      </c>
+      <c r="E34" s="13">
+        <v>129.94</v>
+      </c>
+      <c r="F34" s="13">
+        <v>61.129999999999995</v>
+      </c>
+      <c r="G34" s="14">
+        <v>372.54999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="16">
+        <v>361.84999999999997</v>
+      </c>
+      <c r="D35" s="16">
+        <v>169.09</v>
+      </c>
+      <c r="E35" s="16">
+        <v>380.96</v>
+      </c>
+      <c r="F35" s="16">
+        <v>178.49</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1090.3900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ApocalypseFood/data/ApocalypseFood.xlsx
+++ b/ApocalypseFood/data/ApocalypseFood.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Power BI Tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0CB197-A8D5-46E7-A707-4F0717230A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3170B70F-4B43-4EF9-AA6D-F7E5A1D5EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Apocolypse Store" sheetId="4" r:id="rId1"/>
     <sheet name="Apocolypse Sales" sheetId="5" r:id="rId2"/>
     <sheet name="Customer Information" sheetId="7" r:id="rId3"/>
+    <sheet name="Customer Buyer Information" sheetId="8" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Apocolypse Sales'!$A$1:$F$75</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
   <si>
     <t>Price</t>
   </si>
@@ -159,7 +157,40 @@
     <t>Cust ID</t>
   </si>
   <si>
-    <t>Revenue</t>
+    <t>Buyer ID</t>
+  </si>
+  <si>
+    <t>Product ID Purchased</t>
+  </si>
+  <si>
+    <t>Total Purchased</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>MN</t>
   </si>
 </sst>
 </file>
@@ -520,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22782D8F-EDC8-4AF7-925D-084A073C841E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +564,7 @@
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -546,11 +577,8 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10001</v>
       </c>
@@ -563,11 +591,8 @@
       <c r="D2">
         <v>13.67</v>
       </c>
-      <c r="E2">
-        <v>6754.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10002</v>
       </c>
@@ -580,11 +605,8 @@
       <c r="D3">
         <v>2.89</v>
       </c>
-      <c r="E3">
-        <v>968.99999999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10003</v>
       </c>
@@ -597,11 +619,8 @@
       <c r="D4">
         <v>32.450000000000003</v>
       </c>
-      <c r="E4">
-        <v>4567.4999999999991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10004</v>
       </c>
@@ -614,11 +633,8 @@
       <c r="D5">
         <v>26.92</v>
       </c>
-      <c r="E5">
-        <v>2770.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10005</v>
       </c>
@@ -631,11 +647,8 @@
       <c r="D6">
         <v>10.58</v>
       </c>
-      <c r="E6">
-        <v>8781.5699999999979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10006</v>
       </c>
@@ -648,11 +661,8 @@
       <c r="D7">
         <v>13.41</v>
       </c>
-      <c r="E7">
-        <v>2380.5599999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10007</v>
       </c>
@@ -665,11 +675,8 @@
       <c r="D8">
         <v>30.59</v>
       </c>
-      <c r="E8">
-        <v>13090.999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10008</v>
       </c>
@@ -682,11 +689,8 @@
       <c r="D9">
         <v>4.87</v>
       </c>
-      <c r="E9">
-        <v>503.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10009</v>
       </c>
@@ -699,11 +703,8 @@
       <c r="D10">
         <v>17.93</v>
       </c>
-      <c r="E10">
-        <v>2796.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10010</v>
       </c>
@@ -715,9 +716,6 @@
       </c>
       <c r="D11">
         <v>1.01</v>
-      </c>
-      <c r="E11">
-        <v>596.82000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +729,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,37 +769,37 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>10001</v>
+        <v>10006</v>
       </c>
       <c r="D2">
-        <v>1043</v>
+        <v>1904</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
-        <v>44570</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>_xlfn.XLOOKUP(B3,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>9876</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="D3">
-        <v>6778</v>
+        <v>3966</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1">
-        <v>44572</v>
+        <v>44563</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -813,58 +811,58 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="D4">
-        <v>1341</v>
+        <v>7348</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1">
-        <v>44585</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>_xlfn.XLOOKUP(B5,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>1357</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="D5">
-        <v>7175</v>
+        <v>2409</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1">
-        <v>44587</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>_xlfn.XLOOKUP(B6,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>1234</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>10001</v>
+        <v>10010</v>
       </c>
       <c r="D6">
-        <v>3587</v>
+        <v>2045</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
-        <v>44598</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -876,16 +874,16 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>10001</v>
+        <v>10008</v>
       </c>
       <c r="D7">
-        <v>5989</v>
+        <v>9151</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
-        <v>44618</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -897,79 +895,79 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="D8">
-        <v>7625</v>
+        <v>1065</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1">
-        <v>44626</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>_xlfn.XLOOKUP(B9,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1357</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="D9">
-        <v>6646</v>
+        <v>3780</v>
       </c>
       <c r="E9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1">
-        <v>44628</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>_xlfn.XLOOKUP(B10,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1234</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>10001</v>
       </c>
       <c r="D10">
-        <v>2005</v>
+        <v>1043</v>
       </c>
       <c r="E10">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
-        <v>44635</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>_xlfn.XLOOKUP(B11,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>9876</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>10002</v>
+        <v>10007</v>
       </c>
       <c r="D11">
-        <v>5779</v>
+        <v>7075</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>44597</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -981,16 +979,16 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="D12">
-        <v>6153</v>
+        <v>6778</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
-        <v>44619</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,16 +1000,16 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>10002</v>
+        <v>10008</v>
       </c>
       <c r="D13">
-        <v>7615</v>
+        <v>3572</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1">
-        <v>44624</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,268 +1021,268 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>10002</v>
+        <v>10006</v>
       </c>
       <c r="D14">
-        <v>4464</v>
+        <v>4033</v>
       </c>
       <c r="E14">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1">
-        <v>44634</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>_xlfn.XLOOKUP(B15,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>9876</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="D15">
-        <v>1065</v>
+        <v>2073</v>
       </c>
       <c r="E15">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>44568</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>_xlfn.XLOOKUP(B16,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>2468</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>10003</v>
+        <v>10010</v>
       </c>
       <c r="D16">
-        <v>3780</v>
+        <v>7333</v>
       </c>
       <c r="E16">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1">
-        <v>44569</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>_xlfn.XLOOKUP(B17,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>1357</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="D17">
-        <v>2078</v>
+        <v>3352</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1">
-        <v>44578</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>_xlfn.XLOOKUP(B18,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1234</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>10003</v>
       </c>
       <c r="D18">
-        <v>7854</v>
+        <v>2078</v>
       </c>
       <c r="E18">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1">
-        <v>44595</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>_xlfn.XLOOKUP(B19,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1234</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="D19">
-        <v>4500</v>
+        <v>7616</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1">
-        <v>44603</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>_xlfn.XLOOKUP(B20,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>9876</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>10003</v>
+        <v>10009</v>
       </c>
       <c r="D20">
-        <v>5432</v>
+        <v>6762</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1">
-        <v>44607</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>_xlfn.XLOOKUP(B21,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>2468</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="D21">
-        <v>3522</v>
+        <v>4556</v>
       </c>
       <c r="E21">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1">
-        <v>44609</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>_xlfn.XLOOKUP(B22,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1357</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>10003</v>
+        <v>10008</v>
       </c>
       <c r="D22">
-        <v>5730</v>
+        <v>2659</v>
       </c>
       <c r="E22">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1">
-        <v>44615</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>_xlfn.XLOOKUP(B23,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>1234</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="D23">
-        <v>8063</v>
+        <v>5020</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>44622</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>_xlfn.XLOOKUP(B24,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>9876</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>10004</v>
+        <v>10009</v>
       </c>
       <c r="D24">
-        <v>7348</v>
+        <v>3887</v>
       </c>
       <c r="E24">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1">
-        <v>44564</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>_xlfn.XLOOKUP(B25,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>2468</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="D25">
-        <v>3789</v>
+        <v>1341</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
-        <v>44604</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>_xlfn.XLOOKUP(B26,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>1357</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>10004</v>
+        <v>10006</v>
       </c>
       <c r="D26">
-        <v>4859</v>
+        <v>8459</v>
       </c>
       <c r="E26">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>44625</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1296,16 +1294,16 @@
         <v>17</v>
       </c>
       <c r="C27">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="D27">
-        <v>9996</v>
+        <v>7175</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>44627</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,37 +1315,37 @@
         <v>18</v>
       </c>
       <c r="C28">
-        <v>10004</v>
+        <v>10009</v>
       </c>
       <c r="D28">
-        <v>8427</v>
+        <v>4267</v>
       </c>
       <c r="E28">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1">
-        <v>44629</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>_xlfn.XLOOKUP(B29,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>2468</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="D29">
-        <v>3966</v>
+        <v>1157</v>
       </c>
       <c r="E29">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F29" s="1">
-        <v>44563</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1359,58 +1357,58 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>10005</v>
+        <v>10008</v>
       </c>
       <c r="D30">
-        <v>2409</v>
+        <v>1753</v>
       </c>
       <c r="E30">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>44565</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>_xlfn.XLOOKUP(B31,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>1234</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="D31">
-        <v>2073</v>
+        <v>1913</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1">
-        <v>44575</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>_xlfn.XLOOKUP(B32,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>1234</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="D32">
-        <v>3352</v>
+        <v>4133</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1">
-        <v>44577</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,58 +1420,58 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="D33">
-        <v>7616</v>
+        <v>9562</v>
       </c>
       <c r="E33">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1">
-        <v>44579</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>_xlfn.XLOOKUP(B34,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>9876</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>10005</v>
+        <v>10008</v>
       </c>
       <c r="D34">
-        <v>4556</v>
+        <v>3075</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1">
-        <v>44581</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>_xlfn.XLOOKUP(B35,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>2468</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="D35">
-        <v>5020</v>
+        <v>7854</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1">
-        <v>44583</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1500,43 +1498,43 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>_xlfn.XLOOKUP(B37,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>1234</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="D37">
-        <v>1875</v>
+        <v>5779</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F37" s="1">
-        <v>44600</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>_xlfn.XLOOKUP(B38,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>9876</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="D38">
-        <v>8526</v>
+        <v>3587</v>
       </c>
       <c r="E38">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1">
-        <v>44601</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1548,100 +1546,100 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="D39">
-        <v>1436</v>
+        <v>3718</v>
       </c>
       <c r="E39">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F39" s="1">
-        <v>44611</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>_xlfn.XLOOKUP(B40,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1357</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>10005</v>
       </c>
       <c r="D40">
-        <v>4266</v>
+        <v>1875</v>
       </c>
       <c r="E40">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1">
-        <v>44623</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>_xlfn.XLOOKUP(B41,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1234</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>10005</v>
       </c>
       <c r="D41">
-        <v>9881</v>
+        <v>8526</v>
       </c>
       <c r="E41">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1">
-        <v>44633</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>_xlfn.XLOOKUP(B42,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>9876</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>10006</v>
+        <v>10010</v>
       </c>
       <c r="D42">
-        <v>1904</v>
+        <v>7274</v>
       </c>
       <c r="E42">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F42" s="1">
-        <v>44562</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>_xlfn.XLOOKUP(B43,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>2468</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C43">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="D43">
-        <v>4033</v>
+        <v>4500</v>
       </c>
       <c r="E43">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F43" s="1">
-        <v>44574</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1653,16 +1651,16 @@
         <v>20</v>
       </c>
       <c r="C44">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="D44">
-        <v>8459</v>
+        <v>3789</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44" s="1">
-        <v>44586</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1674,16 +1672,16 @@
         <v>17</v>
       </c>
       <c r="C45">
-        <v>10006</v>
+        <v>10010</v>
       </c>
       <c r="D45">
-        <v>1913</v>
+        <v>3665</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1">
-        <v>44591</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1710,190 +1708,190 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>_xlfn.XLOOKUP(B47,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>2468</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="D47">
-        <v>4606</v>
+        <v>5432</v>
       </c>
       <c r="E47">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F47" s="1">
-        <v>44620</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>_xlfn.XLOOKUP(B48,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>1357</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D48">
-        <v>7075</v>
+        <v>6035</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1">
-        <v>44571</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>_xlfn.XLOOKUP(B49,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1234</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="D49">
-        <v>1157</v>
+        <v>3522</v>
       </c>
       <c r="E49">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F49" s="1">
-        <v>44589</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>_xlfn.XLOOKUP(B50,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>9876</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>10007</v>
       </c>
       <c r="D50">
-        <v>4133</v>
+        <v>9305</v>
       </c>
       <c r="E50">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1">
-        <v>44592</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>_xlfn.XLOOKUP(B51,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>2468</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="D51">
-        <v>9562</v>
+        <v>1436</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F51" s="1">
-        <v>44593</v>
+        <v>44611</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>_xlfn.XLOOKUP(B52,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>1357</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D52">
-        <v>3718</v>
+        <v>9814</v>
       </c>
       <c r="E52">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F52" s="1">
-        <v>44599</v>
+        <v>44612</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>_xlfn.XLOOKUP(B53,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>1234</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D53">
-        <v>9305</v>
+        <v>8032</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F53" s="1">
-        <v>44610</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>_xlfn.XLOOKUP(B54,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>9876</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D54">
-        <v>6624</v>
+        <v>7580</v>
       </c>
       <c r="E54">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F54" s="1">
-        <v>44631</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>_xlfn.XLOOKUP(B55,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>2468</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="D55">
-        <v>9151</v>
+        <v>5730</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F55" s="1">
-        <v>44567</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1905,79 +1903,79 @@
         <v>20</v>
       </c>
       <c r="C56">
-        <v>10008</v>
+        <v>10010</v>
       </c>
       <c r="D56">
-        <v>3572</v>
+        <v>5818</v>
       </c>
       <c r="E56">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1">
-        <v>44573</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>_xlfn.XLOOKUP(B57,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>1234</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>10008</v>
+        <v>10010</v>
       </c>
       <c r="D57">
-        <v>2659</v>
+        <v>2462</v>
       </c>
       <c r="E57">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1">
-        <v>44582</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>_xlfn.XLOOKUP(B58,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>9876</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>10008</v>
+        <v>10001</v>
       </c>
       <c r="D58">
-        <v>1753</v>
+        <v>5989</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F58" s="1">
-        <v>44590</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>_xlfn.XLOOKUP(B59,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>2468</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>10008</v>
+        <v>10002</v>
       </c>
       <c r="D59">
-        <v>3075</v>
+        <v>6153</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F59" s="1">
-        <v>44594</v>
+        <v>44619</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1989,142 +1987,142 @@
         <v>20</v>
       </c>
       <c r="C60">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="D60">
-        <v>6035</v>
+        <v>4606</v>
       </c>
       <c r="E60">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F60" s="1">
-        <v>44608</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>_xlfn.XLOOKUP(B61,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>1234</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>10008</v>
+        <v>10010</v>
       </c>
       <c r="D61">
-        <v>9814</v>
+        <v>2059</v>
       </c>
       <c r="E61">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F61" s="1">
-        <v>44612</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>_xlfn.XLOOKUP(B62,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>9876</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="D62">
-        <v>8032</v>
+        <v>8063</v>
       </c>
       <c r="E62">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F62" s="1">
-        <v>44613</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>_xlfn.XLOOKUP(B63,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>2468</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>10008</v>
+        <v>10005</v>
       </c>
       <c r="D63">
-        <v>7580</v>
+        <v>4266</v>
       </c>
       <c r="E63">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F63" s="1">
-        <v>44614</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>_xlfn.XLOOKUP(B64,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>1357</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>10009</v>
+        <v>10002</v>
       </c>
       <c r="D64">
-        <v>6762</v>
+        <v>7615</v>
       </c>
       <c r="E64">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F64" s="1">
-        <v>44580</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>_xlfn.XLOOKUP(B65,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>1234</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="D65">
-        <v>3887</v>
+        <v>4859</v>
       </c>
       <c r="E65">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F65" s="1">
-        <v>44584</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>_xlfn.XLOOKUP(B66,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>2468</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66">
-        <v>10009</v>
+        <v>10001</v>
       </c>
       <c r="D66">
-        <v>4267</v>
+        <v>7625</v>
       </c>
       <c r="E66">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F66" s="1">
-        <v>44588</v>
+        <v>44626</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2136,142 +2134,142 @@
         <v>17</v>
       </c>
       <c r="C67">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="D67">
-        <v>4952</v>
+        <v>9996</v>
       </c>
       <c r="E67">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F67" s="1">
-        <v>44632</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>_xlfn.XLOOKUP(B68,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>2468</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C68">
-        <v>10010</v>
+        <v>10001</v>
       </c>
       <c r="D68">
-        <v>2045</v>
+        <v>6646</v>
       </c>
       <c r="E68">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F68" s="1">
-        <v>44566</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>_xlfn.XLOOKUP(B69,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>2468</v>
+        <v>9876</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="D69">
-        <v>7333</v>
+        <v>8427</v>
       </c>
       <c r="E69">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F69" s="1">
-        <v>44576</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>_xlfn.XLOOKUP(B70,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>9876</v>
+        <v>2468</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C70">
         <v>10010</v>
       </c>
       <c r="D70">
-        <v>7274</v>
+        <v>2923</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F70" s="1">
-        <v>44602</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>_xlfn.XLOOKUP(B71,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>1357</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>10010</v>
+        <v>10007</v>
       </c>
       <c r="D71">
-        <v>3665</v>
+        <v>6624</v>
       </c>
       <c r="E71">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F71" s="1">
-        <v>44605</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>_xlfn.XLOOKUP(B72,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1357</v>
+        <v>1234</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="D72">
-        <v>5818</v>
+        <v>4952</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1">
-        <v>44616</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>_xlfn.XLOOKUP(B73,'Customer Information'!B:B,'Customer Information'!A:A)</f>
-        <v>1234</v>
+        <v>2468</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C73">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="D73">
-        <v>2462</v>
+        <v>9881</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F73" s="1">
-        <v>44617</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2283,16 +2281,16 @@
         <v>17</v>
       </c>
       <c r="C74">
-        <v>10010</v>
+        <v>10002</v>
       </c>
       <c r="D74">
-        <v>2059</v>
+        <v>4464</v>
       </c>
       <c r="E74">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F74" s="1">
-        <v>44621</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2304,24 +2302,19 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>10010</v>
+        <v>10001</v>
       </c>
       <c r="D75">
-        <v>2923</v>
+        <v>2005</v>
       </c>
       <c r="E75">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F75" s="1">
-        <v>44630</v>
+        <v>44635</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F75" xr:uid="{2BB07A48-6B1F-4096-A29B-353411504FDA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F75">
-      <sortCondition ref="C1:C75"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2331,7 +2324,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,4 +2440,1043 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB05C64-D7EE-40EF-AAEB-45B7D68255AD}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>115371</v>
+      </c>
+      <c r="B2">
+        <v>10003</v>
+      </c>
+      <c r="C2">
+        <v>396</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>78</v>
+      </c>
+      <c r="F2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>110477</v>
+      </c>
+      <c r="B3">
+        <v>10010</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>158272</v>
+      </c>
+      <c r="B4">
+        <v>10002</v>
+      </c>
+      <c r="C4">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>182115</v>
+      </c>
+      <c r="B5">
+        <v>10009</v>
+      </c>
+      <c r="C5">
+        <v>454</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>183142</v>
+      </c>
+      <c r="B6">
+        <v>10005</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>189763</v>
+      </c>
+      <c r="B7">
+        <v>10007</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>133758</v>
+      </c>
+      <c r="B8">
+        <v>10010</v>
+      </c>
+      <c r="C8">
+        <v>496</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>133732</v>
+      </c>
+      <c r="B9">
+        <v>10009</v>
+      </c>
+      <c r="C9">
+        <v>956</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>79</v>
+      </c>
+      <c r="F9">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>109880</v>
+      </c>
+      <c r="B10">
+        <v>10009</v>
+      </c>
+      <c r="C10">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>165031</v>
+      </c>
+      <c r="B11">
+        <v>10008</v>
+      </c>
+      <c r="C11">
+        <v>677</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>159401</v>
+      </c>
+      <c r="B12">
+        <v>10006</v>
+      </c>
+      <c r="C12">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>152614</v>
+      </c>
+      <c r="B13">
+        <v>10007</v>
+      </c>
+      <c r="C13">
+        <v>893</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>187245</v>
+      </c>
+      <c r="B14">
+        <v>10009</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>129003</v>
+      </c>
+      <c r="B15">
+        <v>10007</v>
+      </c>
+      <c r="C15">
+        <v>597</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>175723</v>
+      </c>
+      <c r="B16">
+        <v>10006</v>
+      </c>
+      <c r="C16">
+        <v>977</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>157298</v>
+      </c>
+      <c r="B17">
+        <v>10006</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>167781</v>
+      </c>
+      <c r="B18">
+        <v>10009</v>
+      </c>
+      <c r="C18">
+        <v>423</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>135992</v>
+      </c>
+      <c r="B19">
+        <v>10010</v>
+      </c>
+      <c r="C19">
+        <v>315</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>132519</v>
+      </c>
+      <c r="B20">
+        <v>10002</v>
+      </c>
+      <c r="C20">
+        <v>759</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>194710</v>
+      </c>
+      <c r="B21">
+        <v>10004</v>
+      </c>
+      <c r="C21">
+        <v>926</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>150412</v>
+      </c>
+      <c r="B22">
+        <v>10009</v>
+      </c>
+      <c r="C22">
+        <v>561</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>139566</v>
+      </c>
+      <c r="B23">
+        <v>10003</v>
+      </c>
+      <c r="C23">
+        <v>321</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>44</v>
+      </c>
+      <c r="F23">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>172087</v>
+      </c>
+      <c r="B24">
+        <v>10004</v>
+      </c>
+      <c r="C24">
+        <v>748</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>158933</v>
+      </c>
+      <c r="B25">
+        <v>10005</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>41</v>
+      </c>
+      <c r="F25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>141503</v>
+      </c>
+      <c r="B26">
+        <v>10006</v>
+      </c>
+      <c r="C26">
+        <v>501</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>185945</v>
+      </c>
+      <c r="B27">
+        <v>10006</v>
+      </c>
+      <c r="C27">
+        <v>330</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>116120</v>
+      </c>
+      <c r="B28">
+        <v>10005</v>
+      </c>
+      <c r="C28">
+        <v>879</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>72</v>
+      </c>
+      <c r="F28">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>105285</v>
+      </c>
+      <c r="B29">
+        <v>10010</v>
+      </c>
+      <c r="C29">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>72</v>
+      </c>
+      <c r="F29">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>106604</v>
+      </c>
+      <c r="B30">
+        <v>10005</v>
+      </c>
+      <c r="C30">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>157430</v>
+      </c>
+      <c r="B31">
+        <v>10007</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>171415</v>
+      </c>
+      <c r="B32">
+        <v>10009</v>
+      </c>
+      <c r="C32">
+        <v>279</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>130468</v>
+      </c>
+      <c r="B33">
+        <v>10009</v>
+      </c>
+      <c r="C33">
+        <v>678</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>58</v>
+      </c>
+      <c r="F33">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>102373</v>
+      </c>
+      <c r="B34">
+        <v>10006</v>
+      </c>
+      <c r="C34">
+        <v>241</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>162348</v>
+      </c>
+      <c r="B35">
+        <v>10009</v>
+      </c>
+      <c r="C35">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35">
+        <v>57</v>
+      </c>
+      <c r="F35">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>196477</v>
+      </c>
+      <c r="B36">
+        <v>10004</v>
+      </c>
+      <c r="C36">
+        <v>972</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>164354</v>
+      </c>
+      <c r="B37">
+        <v>10008</v>
+      </c>
+      <c r="C37">
+        <v>775</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>172071</v>
+      </c>
+      <c r="B38">
+        <v>10002</v>
+      </c>
+      <c r="C38">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>129567</v>
+      </c>
+      <c r="B39">
+        <v>10006</v>
+      </c>
+      <c r="C39">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>125952</v>
+      </c>
+      <c r="B40">
+        <v>10003</v>
+      </c>
+      <c r="C40">
+        <v>913</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>76</v>
+      </c>
+      <c r="F40">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>167725</v>
+      </c>
+      <c r="B41">
+        <v>10009</v>
+      </c>
+      <c r="C41">
+        <v>554</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>119584</v>
+      </c>
+      <c r="B42">
+        <v>10004</v>
+      </c>
+      <c r="C42">
+        <v>628</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>66</v>
+      </c>
+      <c r="F42">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>100525</v>
+      </c>
+      <c r="B43">
+        <v>10005</v>
+      </c>
+      <c r="C43">
+        <v>315</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>103091</v>
+      </c>
+      <c r="B44">
+        <v>10009</v>
+      </c>
+      <c r="C44">
+        <v>604</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <v>71</v>
+      </c>
+      <c r="F44">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>142519</v>
+      </c>
+      <c r="B45">
+        <v>10005</v>
+      </c>
+      <c r="C45">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>184870</v>
+      </c>
+      <c r="B46">
+        <v>10002</v>
+      </c>
+      <c r="C46">
+        <v>534</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="F46">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>191801</v>
+      </c>
+      <c r="B47">
+        <v>10001</v>
+      </c>
+      <c r="C47">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47">
+        <v>61</v>
+      </c>
+      <c r="F47">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>162760</v>
+      </c>
+      <c r="B48">
+        <v>10004</v>
+      </c>
+      <c r="C48">
+        <v>832</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>125988</v>
+      </c>
+      <c r="B49">
+        <v>10004</v>
+      </c>
+      <c r="C49">
+        <v>230</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>67</v>
+      </c>
+      <c r="F49">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>176024</v>
+      </c>
+      <c r="B50">
+        <v>10006</v>
+      </c>
+      <c r="C50">
+        <v>463</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>32</v>
+      </c>
+      <c r="F50">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>125238</v>
+      </c>
+      <c r="B51">
+        <v>10008</v>
+      </c>
+      <c r="C51">
+        <v>565</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51">
+        <v>29</v>
+      </c>
+      <c r="F51">
+        <v>1357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ApocalypseFood/data/ApocalypseFood.xlsx
+++ b/ApocalypseFood/data/ApocalypseFood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Power BI Tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3170B70F-4B43-4EF9-AA6D-F7E5A1D5EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{202E421F-8DDC-4DBD-B073-36C35363DA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Apocolypse Store" sheetId="4" r:id="rId1"/>
@@ -2447,7 +2447,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
